--- a/dossier/donnees/source/category_schema/products_category_schema_v1.xlsx
+++ b/dossier/donnees/source/category_schema/products_category_schema_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilyas Land\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\repos\finalproject\dossier\donnees\source\category_schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D895D6F1-D5D1-4EAB-B7F1-66B1A3A9EDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32782AA7-63CE-4E15-A5A3-4C290E3B8A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{457005F6-7ED7-4D15-A9E1-BC1F80827E8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Beers (ciders, long drinks)</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Biscuits and cakes</t>
   </si>
   <si>
-    <t>Milk and yogurt</t>
-  </si>
-  <si>
     <t>One-dish meals</t>
   </si>
   <si>
@@ -328,6 +325,12 @@
   </si>
   <si>
     <t>kg_CO2_max</t>
+  </si>
+  <si>
+    <t>Sugar and Honey</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
   </si>
 </sst>
 </file>
@@ -729,9 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2ED41C-C107-4D25-A80F-6A313FE60A01}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -744,19 +749,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -764,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3">
         <v>0.5</v>
@@ -782,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3">
         <v>0.6</v>
@@ -791,7 +796,7 @@
         <v>1.3</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E70" si="0">AVERAGE(C3,D3)</f>
+        <f t="shared" ref="E3:E71" si="0">AVERAGE(C3,D3)</f>
         <v>0.95</v>
       </c>
     </row>
@@ -800,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3">
         <v>0.6</v>
@@ -818,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3">
         <v>0.1</v>
@@ -836,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3">
         <v>0.1</v>
@@ -854,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3">
         <v>0.1</v>
@@ -902,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3">
         <v>2.6</v>
@@ -935,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>0.9</v>
@@ -953,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3">
         <v>1.1000000000000001</v>
@@ -971,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
         <v>7.5</v>
@@ -1003,6 +1008,9 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
       <c r="C16" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3">
         <v>1.1000000000000001</v>
@@ -1068,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3">
         <v>0.3</v>
@@ -1131,7 +1139,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3">
         <v>0.1</v>
@@ -1149,7 +1157,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3">
         <v>0.1</v>
@@ -1212,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3">
         <v>0.3</v>
@@ -1245,7 +1253,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3">
         <v>0.1</v>
@@ -1275,53 +1283,53 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
       </c>
       <c r="C33" s="3">
-        <v>0.1</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="D33" s="3">
-        <v>4.2</v>
+        <v>1.657</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>2.15</v>
+        <v>1.1565000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C34" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D34" s="3">
-        <v>26</v>
+        <v>4.2</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>13.15</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C35" s="3">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="D35" s="3">
-        <v>4.7</v>
+        <v>26</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>2.95</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1329,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3">
         <v>1.2</v>
@@ -1338,7 +1346,7 @@
         <v>4.7</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" ref="E36" si="5">AVERAGE(C36,D36)</f>
+        <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
     </row>
@@ -1347,7 +1355,7 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C37" s="3">
         <v>1.2</v>
@@ -1356,7 +1364,7 @@
         <v>4.7</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" ref="E37" si="6">AVERAGE(C37,D37)</f>
+        <f t="shared" ref="E37" si="5">AVERAGE(C37,D37)</f>
         <v>2.95</v>
       </c>
     </row>
@@ -1365,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3">
         <v>1.2</v>
@@ -1374,211 +1382,211 @@
         <v>4.7</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" ref="E38" si="7">AVERAGE(C38,D38)</f>
+        <f t="shared" ref="E38" si="6">AVERAGE(C38,D38)</f>
         <v>2.95</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
       </c>
       <c r="C39" s="3">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="D39" s="3">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
+        <f t="shared" ref="E39" si="7">AVERAGE(C39,D39)</f>
+        <v>2.95</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
-        <v>36</v>
+        <v>2.8</v>
       </c>
       <c r="D40" s="3">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E40" s="4">
-        <v>43.33</v>
+        <f t="shared" si="0"/>
+        <v>3.4</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
       </c>
       <c r="C41" s="3">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>6.9</v>
+        <v>46</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>43.33</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="3">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="D42" s="3">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>2.65</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D43" s="3">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="0"/>
-        <v>1.55</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="3">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="D44" s="3">
-        <v>8.9</v>
+        <v>2.7</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="0"/>
-        <v>6.3000000000000007</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="3">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="D45" s="3">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="3">
-        <v>4.0999999999999996</v>
+        <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C47" s="3">
-        <v>1.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D47" s="3">
-        <v>15</v>
+        <v>6.7</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="0"/>
-        <v>8.4499999999999993</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
       </c>
       <c r="C48" s="3">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D48" s="3">
-        <v>6.1</v>
+        <v>15</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="0"/>
-        <v>4.3499999999999996</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="D49" s="3">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="0"/>
-        <v>1.65</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="3">
-        <v>14</v>
+        <v>0.8</v>
       </c>
       <c r="D50" s="3">
-        <v>37</v>
+        <v>2.5</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C51" s="3">
-        <v>0.5</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3">
-        <v>4.5</v>
+        <v>37</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1586,7 +1594,7 @@
         <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3">
         <v>0.5</v>
@@ -1595,7 +1603,7 @@
         <v>4.5</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" ref="E52" si="8">AVERAGE(C52,D52)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
@@ -1604,7 +1612,7 @@
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C53" s="3">
         <v>0.5</v>
@@ -1613,26 +1621,26 @@
         <v>4.5</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" ref="E53" si="9">AVERAGE(C53,D53)</f>
+        <f t="shared" ref="E53" si="8">AVERAGE(C53,D53)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C54" s="3">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="D54" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" ref="E54" si="9">AVERAGE(C54,D54)</f>
         <v>2.5</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1640,7 +1648,7 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C55" s="3">
         <v>1.7</v>
@@ -1649,26 +1657,26 @@
         <v>2.5</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" ref="E55" si="10">AVERAGE(C55,D55)</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C56" s="3">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="D56" s="3">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9</v>
+        <f t="shared" ref="E56" si="10">AVERAGE(C56,D56)</f>
+        <v>2.1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1676,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C57" s="3">
         <v>0.6</v>
@@ -1685,26 +1693,26 @@
         <v>5.2</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" ref="E57" si="11">AVERAGE(C57,D57)</f>
+        <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C58" s="3">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="D58" s="3">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>2.95</v>
+        <f t="shared" ref="E58" si="11">AVERAGE(C58,D58)</f>
+        <v>2.9</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1712,7 +1720,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3">
         <v>1.7</v>
@@ -1721,44 +1729,44 @@
         <v>4.2</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" ref="E59" si="12">AVERAGE(C59,D59)</f>
+        <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C60" s="3">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D60" s="3">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5999999999999996</v>
+        <f t="shared" ref="E60" si="12">AVERAGE(C60,D60)</f>
+        <v>2.95</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C61" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="D61" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="0"/>
-        <v>2.6500000000000004</v>
+        <v>2.5999999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1766,7 +1774,7 @@
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C62" s="3">
         <v>2.2000000000000002</v>
@@ -1775,177 +1783,178 @@
         <v>3.1</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" ref="E62" si="13">AVERAGE(C62,D62)</f>
+        <f t="shared" si="0"/>
         <v>2.6500000000000004</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
       </c>
       <c r="C63" s="3">
-        <v>0.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+        <f t="shared" ref="E63" si="13">AVERAGE(C63,D63)</f>
+        <v>2.6500000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="3">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="D64" s="3">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="3">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="D65" s="3">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D66" s="3">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D67" s="3">
-        <v>5.6</v>
+        <v>8.5</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" si="0"/>
-        <v>2.9499999999999997</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="3">
-        <v>2</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5.6</v>
+      </c>
       <c r="E68" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.9499999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="D69" s="3">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="4">
         <f t="shared" si="0"/>
-        <v>9.0500000000000007</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>11</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C71" s="3">
         <v>0.8</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>2.4</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <f t="shared" si="0"/>
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71">
-        <v>4.6070000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
         <v>63</v>
       </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
       <c r="E72">
+        <v>4.6070000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73">
         <v>3.15E-2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A71" r:id="rId1" xr:uid="{92D8BCFB-8E1B-4643-BA73-B3DC037E520D}"/>
-    <hyperlink ref="A72" r:id="rId2" xr:uid="{1AA32D13-97C2-4339-9539-D443F7D3DE63}"/>
+    <hyperlink ref="A72" r:id="rId1" xr:uid="{92D8BCFB-8E1B-4643-BA73-B3DC037E520D}"/>
+    <hyperlink ref="A73" r:id="rId2" xr:uid="{1AA32D13-97C2-4339-9539-D443F7D3DE63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b04b500a-6269-4eda-8cc4-169a96763e00" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010021E74742A82CA24FAC53538B5EEBC4A4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c34ba6733a08a9be8f1f8e7165dc1c4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b04b500a-6269-4eda-8cc4-169a96763e00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87ac25a6965d7127414b6b53c06da292" ns3:_="">
     <xsd:import namespace="b04b500a-6269-4eda-8cc4-169a96763e00"/>
@@ -2127,31 +2136,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CC4449F-7082-4EDF-AB62-52B03F9D6D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b04b500a-6269-4eda-8cc4-169a96763e00"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C387336-7CB1-4EAA-83E4-7E2E0304F17A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b04b500a-6269-4eda-8cc4-169a96763e00" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D191666D-D543-41E2-94AE-6FB086D5E49C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2167,4 +2169,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C387336-7CB1-4EAA-83E4-7E2E0304F17A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CC4449F-7082-4EDF-AB62-52B03F9D6D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b04b500a-6269-4eda-8cc4-169a96763e00"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>